--- a/biology/Histoire de la zoologie et de la botanique/Johann_Wilhelm_Haacke/Johann_Wilhelm_Haacke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Wilhelm_Haacke/Johann_Wilhelm_Haacke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Wilhelm Haacke est un zoologiste allemand, né le 23 août 1855 à Clenze en royaume de Hanovre et mort le 6 décembre 1912 à Lunebourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Johann Wilhelm Haacke et de Wilhelmine Friederike Louise née Wacker. Il étudie la zoologie à l’université d'Iéna où il obtient son doctorat en 1878. Haacke devient assistant à l’université d'Iéna en 1878 puis à celle de Kiel l’année suivante.
 Il émigre en Nouvelle-Zélande en 1881. Il se marie avec Emily von Bertouch en 1883, union dont naître un fils et une fille. De 1882 à 1884, il dirige le muséum d’Adélaïde en Australie. Haacke revient en Allemagne en 1886. Il dirige le zoo de Francfort-sur-le-Main de 1888 à 1893, enseigne la zoologie à l’université technique de Darmstadt de 1890 à 1897. Haacke étudie la morphologie des coraux et des méduses, l’évolution et est notamment le père du concept de l’orthogenèse.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Schöpfung der Tierwelt (Leipzig et Vienne, 1893).
 Gestaltung und Vererbung. Eine Entwickelungsmechanik der Organismen (Leipzig, 1893).
